--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:07:07+00:00</t>
+    <t>2022-02-23T10:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:14:18+00:00</t>
+    <t>2022-02-23T10:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:23:47+00:00</t>
+    <t>2022-02-23T10:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:42:10+00:00</t>
+    <t>2022-02-23T10:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:49:18+00:00</t>
+    <t>2022-02-23T11:09:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:09:08+00:00</t>
+    <t>2022-02-23T11:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ConceptMap/BwIpmsFacilityCodeMap</t>
+    <t>http://simplifier.net/ISiK/ConceptMap/BwIpmsFacilityCodeMap</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:19:10+00:00</t>
+    <t>2022-02-23T11:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,13 +93,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-ipms-facility-code-vs</t>
+    <t>http://simplifier.net/ISiK/ValueSet/bw-ipms-facility-code-vs</t>
   </si>
   <si>
     <t>Target</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-mfl-facility-code-vs</t>
+    <t>http://simplifier.net/ISiK/ValueSet/bw-mfl-facility-code-vs</t>
   </si>
   <si>
     <t>Display</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:46:26+00:00</t>
+    <t>2022-02-23T12:05:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:05:26+00:00</t>
+    <t>2022-02-23T12:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>B-TECHBW</t>
+    <t>gematik</t>
   </si>
   <si>
     <t>Contact</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:18:43+00:00</t>
+    <t>2022-02-23T12:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:22:10+00:00</t>
+    <t>2022-02-23T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BwIpmsFacilityCodeMap.xlsx
+++ b/BwIpmsFacilityCodeMap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T07:35:42+00:00</t>
+    <t>2022-03-07T07:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
